--- a/fuction_ensemble_1/redes-ensemble-s/Teste03/content/results/metrics_12_3.xlsx
+++ b/fuction_ensemble_1/redes-ensemble-s/Teste03/content/results/metrics_12_3.xlsx
@@ -518,661 +518,661 @@
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>model_12_3_12</t>
+          <t>model_12_3_9</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.9999974177537621</v>
+        <v>0.6458022902904654</v>
       </c>
       <c r="C2" t="n">
-        <v>0.683151781529648</v>
+        <v>-23.02505197487528</v>
       </c>
       <c r="D2" t="n">
-        <v>0.9999918040631369</v>
+        <v>0.3509511836454897</v>
       </c>
       <c r="E2" t="n">
-        <v>0.9999965551099957</v>
+        <v>-1.278055290244684</v>
       </c>
       <c r="F2" t="n">
-        <v>0.9999935549357973</v>
+        <v>-0.2295123209787617</v>
       </c>
       <c r="G2" t="n">
-        <v>1.532932914095583e-06</v>
+        <v>0.2102670610279525</v>
       </c>
       <c r="H2" t="n">
-        <v>0.1880947896143613</v>
+        <v>14.26230868049242</v>
       </c>
       <c r="I2" t="n">
-        <v>7.703085562609351e-06</v>
+        <v>0.2401337672282458</v>
       </c>
       <c r="J2" t="n">
-        <v>1.877744102092748e-06</v>
+        <v>0.4683857702226017</v>
       </c>
       <c r="K2" t="n">
-        <v>4.790280903036851e-06</v>
+        <v>0.3542597687254238</v>
       </c>
       <c r="L2" t="n">
-        <v>0.0003636005420502443</v>
+        <v>0.2697708819353354</v>
       </c>
       <c r="M2" t="n">
-        <v>0.001238116680323621</v>
+        <v>0.4585488643841051</v>
       </c>
       <c r="N2" t="n">
-        <v>1.000001377197994</v>
+        <v>-0.06259312912860371</v>
       </c>
       <c r="O2" t="n">
-        <v>0.001290825870659852</v>
+        <v>0.4780702388679436</v>
       </c>
       <c r="P2" t="n">
-        <v>164.7766554404445</v>
+        <v>35.11875367406773</v>
       </c>
       <c r="Q2" t="n">
-        <v>248.8790873563503</v>
+        <v>54.62076687195893</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>model_12_3_22</t>
+          <t>model_12_3_12</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.9999974177537621</v>
+        <v>0.6383931775788736</v>
       </c>
       <c r="C3" t="n">
-        <v>0.683151781529648</v>
+        <v>-23.10748969621655</v>
       </c>
       <c r="D3" t="n">
-        <v>0.9999918040631369</v>
+        <v>0.3313169117313355</v>
       </c>
       <c r="E3" t="n">
-        <v>0.9999965551099957</v>
+        <v>-1.388364236985702</v>
       </c>
       <c r="F3" t="n">
-        <v>0.9999935549357973</v>
+        <v>-0.2814759963235094</v>
       </c>
       <c r="G3" t="n">
-        <v>1.532932914095583e-06</v>
+        <v>0.2146654303905574</v>
       </c>
       <c r="H3" t="n">
-        <v>0.1880947896143613</v>
+        <v>14.31124727300474</v>
       </c>
       <c r="I3" t="n">
-        <v>7.703085562609351e-06</v>
+        <v>0.2473980154060813</v>
       </c>
       <c r="J3" t="n">
-        <v>1.877744102092748e-06</v>
+        <v>0.4910661420305162</v>
       </c>
       <c r="K3" t="n">
-        <v>4.790280903036851e-06</v>
+        <v>0.3692320787182988</v>
       </c>
       <c r="L3" t="n">
-        <v>0.0003636005420502443</v>
+        <v>0.2718993657310753</v>
       </c>
       <c r="M3" t="n">
-        <v>0.001238116680323621</v>
+        <v>0.4633200086231518</v>
       </c>
       <c r="N3" t="n">
-        <v>1.000001377197994</v>
+        <v>-0.08482046726337922</v>
       </c>
       <c r="O3" t="n">
-        <v>0.001290825870659852</v>
+        <v>0.4830445005948765</v>
       </c>
       <c r="P3" t="n">
-        <v>164.7766554404445</v>
+        <v>35.07734920122535</v>
       </c>
       <c r="Q3" t="n">
-        <v>248.8790873563503</v>
+        <v>54.57936239911656</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>model_12_3_21</t>
+          <t>model_12_3_22</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.9999974177537621</v>
+        <v>0.6383931775788736</v>
       </c>
       <c r="C4" t="n">
-        <v>0.683151781529648</v>
+        <v>-23.10748969621655</v>
       </c>
       <c r="D4" t="n">
-        <v>0.9999918040631369</v>
+        <v>0.3313169117313355</v>
       </c>
       <c r="E4" t="n">
-        <v>0.9999965551099957</v>
+        <v>-1.388364236985702</v>
       </c>
       <c r="F4" t="n">
-        <v>0.9999935549357973</v>
+        <v>-0.2814759963235094</v>
       </c>
       <c r="G4" t="n">
-        <v>1.532932914095583e-06</v>
+        <v>0.2146654303905574</v>
       </c>
       <c r="H4" t="n">
-        <v>0.1880947896143613</v>
+        <v>14.31124727300474</v>
       </c>
       <c r="I4" t="n">
-        <v>7.703085562609351e-06</v>
+        <v>0.2473980154060813</v>
       </c>
       <c r="J4" t="n">
-        <v>1.877744102092748e-06</v>
+        <v>0.4910661420305162</v>
       </c>
       <c r="K4" t="n">
-        <v>4.790280903036851e-06</v>
+        <v>0.3692320787182988</v>
       </c>
       <c r="L4" t="n">
-        <v>0.0003636005420502443</v>
+        <v>0.2718993657310753</v>
       </c>
       <c r="M4" t="n">
-        <v>0.001238116680323621</v>
+        <v>0.4633200086231518</v>
       </c>
       <c r="N4" t="n">
-        <v>1.000001377197994</v>
+        <v>-0.08482046726337922</v>
       </c>
       <c r="O4" t="n">
-        <v>0.001290825870659852</v>
+        <v>0.4830445005948765</v>
       </c>
       <c r="P4" t="n">
-        <v>164.7766554404445</v>
+        <v>35.07734920122535</v>
       </c>
       <c r="Q4" t="n">
-        <v>248.8790873563503</v>
+        <v>54.57936239911656</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>model_12_3_20</t>
+          <t>model_12_3_21</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.9999974177537621</v>
+        <v>0.6383931775788736</v>
       </c>
       <c r="C5" t="n">
-        <v>0.683151781529648</v>
+        <v>-23.10748969621655</v>
       </c>
       <c r="D5" t="n">
-        <v>0.9999918040631369</v>
+        <v>0.3313169117313355</v>
       </c>
       <c r="E5" t="n">
-        <v>0.9999965551099957</v>
+        <v>-1.388364236985702</v>
       </c>
       <c r="F5" t="n">
-        <v>0.9999935549357973</v>
+        <v>-0.2814759963235094</v>
       </c>
       <c r="G5" t="n">
-        <v>1.532932914095583e-06</v>
+        <v>0.2146654303905574</v>
       </c>
       <c r="H5" t="n">
-        <v>0.1880947896143613</v>
+        <v>14.31124727300474</v>
       </c>
       <c r="I5" t="n">
-        <v>7.703085562609351e-06</v>
+        <v>0.2473980154060813</v>
       </c>
       <c r="J5" t="n">
-        <v>1.877744102092748e-06</v>
+        <v>0.4910661420305162</v>
       </c>
       <c r="K5" t="n">
-        <v>4.790280903036851e-06</v>
+        <v>0.3692320787182988</v>
       </c>
       <c r="L5" t="n">
-        <v>0.0003636005420502443</v>
+        <v>0.2718993657310753</v>
       </c>
       <c r="M5" t="n">
-        <v>0.001238116680323621</v>
+        <v>0.4633200086231518</v>
       </c>
       <c r="N5" t="n">
-        <v>1.000001377197994</v>
+        <v>-0.08482046726337922</v>
       </c>
       <c r="O5" t="n">
-        <v>0.001290825870659852</v>
+        <v>0.4830445005948765</v>
       </c>
       <c r="P5" t="n">
-        <v>164.7766554404445</v>
+        <v>35.07734920122535</v>
       </c>
       <c r="Q5" t="n">
-        <v>248.8790873563503</v>
+        <v>54.57936239911656</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>model_12_3_19</t>
+          <t>model_12_3_20</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.9999974177537621</v>
+        <v>0.6383931775788736</v>
       </c>
       <c r="C6" t="n">
-        <v>0.683151781529648</v>
+        <v>-23.10748969621655</v>
       </c>
       <c r="D6" t="n">
-        <v>0.9999918040631369</v>
+        <v>0.3313169117313355</v>
       </c>
       <c r="E6" t="n">
-        <v>0.9999965551099957</v>
+        <v>-1.388364236985702</v>
       </c>
       <c r="F6" t="n">
-        <v>0.9999935549357973</v>
+        <v>-0.2814759963235094</v>
       </c>
       <c r="G6" t="n">
-        <v>1.532932914095583e-06</v>
+        <v>0.2146654303905574</v>
       </c>
       <c r="H6" t="n">
-        <v>0.1880947896143613</v>
+        <v>14.31124727300474</v>
       </c>
       <c r="I6" t="n">
-        <v>7.703085562609351e-06</v>
+        <v>0.2473980154060813</v>
       </c>
       <c r="J6" t="n">
-        <v>1.877744102092748e-06</v>
+        <v>0.4910661420305162</v>
       </c>
       <c r="K6" t="n">
-        <v>4.790280903036851e-06</v>
+        <v>0.3692320787182988</v>
       </c>
       <c r="L6" t="n">
-        <v>0.0003636005420502443</v>
+        <v>0.2718993657310753</v>
       </c>
       <c r="M6" t="n">
-        <v>0.001238116680323621</v>
+        <v>0.4633200086231518</v>
       </c>
       <c r="N6" t="n">
-        <v>1.000001377197994</v>
+        <v>-0.08482046726337922</v>
       </c>
       <c r="O6" t="n">
-        <v>0.001290825870659852</v>
+        <v>0.4830445005948765</v>
       </c>
       <c r="P6" t="n">
-        <v>164.7766554404445</v>
+        <v>35.07734920122535</v>
       </c>
       <c r="Q6" t="n">
-        <v>248.8790873563503</v>
+        <v>54.57936239911656</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>model_12_3_18</t>
+          <t>model_12_3_19</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.9999974177537621</v>
+        <v>0.6383931775788736</v>
       </c>
       <c r="C7" t="n">
-        <v>0.683151781529648</v>
+        <v>-23.10748969621655</v>
       </c>
       <c r="D7" t="n">
-        <v>0.9999918040631369</v>
+        <v>0.3313169117313355</v>
       </c>
       <c r="E7" t="n">
-        <v>0.9999965551099957</v>
+        <v>-1.388364236985702</v>
       </c>
       <c r="F7" t="n">
-        <v>0.9999935549357973</v>
+        <v>-0.2814759963235094</v>
       </c>
       <c r="G7" t="n">
-        <v>1.532932914095583e-06</v>
+        <v>0.2146654303905574</v>
       </c>
       <c r="H7" t="n">
-        <v>0.1880947896143613</v>
+        <v>14.31124727300474</v>
       </c>
       <c r="I7" t="n">
-        <v>7.703085562609351e-06</v>
+        <v>0.2473980154060813</v>
       </c>
       <c r="J7" t="n">
-        <v>1.877744102092748e-06</v>
+        <v>0.4910661420305162</v>
       </c>
       <c r="K7" t="n">
-        <v>4.790280903036851e-06</v>
+        <v>0.3692320787182988</v>
       </c>
       <c r="L7" t="n">
-        <v>0.0003636005420502443</v>
+        <v>0.2718993657310753</v>
       </c>
       <c r="M7" t="n">
-        <v>0.001238116680323621</v>
+        <v>0.4633200086231518</v>
       </c>
       <c r="N7" t="n">
-        <v>1.000001377197994</v>
+        <v>-0.08482046726337922</v>
       </c>
       <c r="O7" t="n">
-        <v>0.001290825870659852</v>
+        <v>0.4830445005948765</v>
       </c>
       <c r="P7" t="n">
-        <v>164.7766554404445</v>
+        <v>35.07734920122535</v>
       </c>
       <c r="Q7" t="n">
-        <v>248.8790873563503</v>
+        <v>54.57936239911656</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>model_12_3_17</t>
+          <t>model_12_3_18</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.9999974177537621</v>
+        <v>0.6383931775788736</v>
       </c>
       <c r="C8" t="n">
-        <v>0.683151781529648</v>
+        <v>-23.10748969621655</v>
       </c>
       <c r="D8" t="n">
-        <v>0.9999918040631369</v>
+        <v>0.3313169117313355</v>
       </c>
       <c r="E8" t="n">
-        <v>0.9999965551099957</v>
+        <v>-1.388364236985702</v>
       </c>
       <c r="F8" t="n">
-        <v>0.9999935549357973</v>
+        <v>-0.2814759963235094</v>
       </c>
       <c r="G8" t="n">
-        <v>1.532932914095583e-06</v>
+        <v>0.2146654303905574</v>
       </c>
       <c r="H8" t="n">
-        <v>0.1880947896143613</v>
+        <v>14.31124727300474</v>
       </c>
       <c r="I8" t="n">
-        <v>7.703085562609351e-06</v>
+        <v>0.2473980154060813</v>
       </c>
       <c r="J8" t="n">
-        <v>1.877744102092748e-06</v>
+        <v>0.4910661420305162</v>
       </c>
       <c r="K8" t="n">
-        <v>4.790280903036851e-06</v>
+        <v>0.3692320787182988</v>
       </c>
       <c r="L8" t="n">
-        <v>0.0003636005420502443</v>
+        <v>0.2718993657310753</v>
       </c>
       <c r="M8" t="n">
-        <v>0.001238116680323621</v>
+        <v>0.4633200086231518</v>
       </c>
       <c r="N8" t="n">
-        <v>1.000001377197994</v>
+        <v>-0.08482046726337922</v>
       </c>
       <c r="O8" t="n">
-        <v>0.001290825870659852</v>
+        <v>0.4830445005948765</v>
       </c>
       <c r="P8" t="n">
-        <v>164.7766554404445</v>
+        <v>35.07734920122535</v>
       </c>
       <c r="Q8" t="n">
-        <v>248.8790873563503</v>
+        <v>54.57936239911656</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>model_12_3_16</t>
+          <t>model_12_3_17</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.9999974177537621</v>
+        <v>0.6383931775788736</v>
       </c>
       <c r="C9" t="n">
-        <v>0.683151781529648</v>
+        <v>-23.10748969621655</v>
       </c>
       <c r="D9" t="n">
-        <v>0.9999918040631369</v>
+        <v>0.3313169117313355</v>
       </c>
       <c r="E9" t="n">
-        <v>0.9999965551099957</v>
+        <v>-1.388364236985702</v>
       </c>
       <c r="F9" t="n">
-        <v>0.9999935549357973</v>
+        <v>-0.2814759963235094</v>
       </c>
       <c r="G9" t="n">
-        <v>1.532932914095583e-06</v>
+        <v>0.2146654303905574</v>
       </c>
       <c r="H9" t="n">
-        <v>0.1880947896143613</v>
+        <v>14.31124727300474</v>
       </c>
       <c r="I9" t="n">
-        <v>7.703085562609351e-06</v>
+        <v>0.2473980154060813</v>
       </c>
       <c r="J9" t="n">
-        <v>1.877744102092748e-06</v>
+        <v>0.4910661420305162</v>
       </c>
       <c r="K9" t="n">
-        <v>4.790280903036851e-06</v>
+        <v>0.3692320787182988</v>
       </c>
       <c r="L9" t="n">
-        <v>0.0003636005420502443</v>
+        <v>0.2718993657310753</v>
       </c>
       <c r="M9" t="n">
-        <v>0.001238116680323621</v>
+        <v>0.4633200086231518</v>
       </c>
       <c r="N9" t="n">
-        <v>1.000001377197994</v>
+        <v>-0.08482046726337922</v>
       </c>
       <c r="O9" t="n">
-        <v>0.001290825870659852</v>
+        <v>0.4830445005948765</v>
       </c>
       <c r="P9" t="n">
-        <v>164.7766554404445</v>
+        <v>35.07734920122535</v>
       </c>
       <c r="Q9" t="n">
-        <v>248.8790873563503</v>
+        <v>54.57936239911656</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>model_12_3_15</t>
+          <t>model_12_3_16</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0.9999974177537621</v>
+        <v>0.6383931775788736</v>
       </c>
       <c r="C10" t="n">
-        <v>0.683151781529648</v>
+        <v>-23.10748969621655</v>
       </c>
       <c r="D10" t="n">
-        <v>0.9999918040631369</v>
+        <v>0.3313169117313355</v>
       </c>
       <c r="E10" t="n">
-        <v>0.9999965551099957</v>
+        <v>-1.388364236985702</v>
       </c>
       <c r="F10" t="n">
-        <v>0.9999935549357973</v>
+        <v>-0.2814759963235094</v>
       </c>
       <c r="G10" t="n">
-        <v>1.532932914095583e-06</v>
+        <v>0.2146654303905574</v>
       </c>
       <c r="H10" t="n">
-        <v>0.1880947896143613</v>
+        <v>14.31124727300474</v>
       </c>
       <c r="I10" t="n">
-        <v>7.703085562609351e-06</v>
+        <v>0.2473980154060813</v>
       </c>
       <c r="J10" t="n">
-        <v>1.877744102092748e-06</v>
+        <v>0.4910661420305162</v>
       </c>
       <c r="K10" t="n">
-        <v>4.790280903036851e-06</v>
+        <v>0.3692320787182988</v>
       </c>
       <c r="L10" t="n">
-        <v>0.0003636005420502443</v>
+        <v>0.2718993657310753</v>
       </c>
       <c r="M10" t="n">
-        <v>0.001238116680323621</v>
+        <v>0.4633200086231518</v>
       </c>
       <c r="N10" t="n">
-        <v>1.000001377197994</v>
+        <v>-0.08482046726337922</v>
       </c>
       <c r="O10" t="n">
-        <v>0.001290825870659852</v>
+        <v>0.4830445005948765</v>
       </c>
       <c r="P10" t="n">
-        <v>164.7766554404445</v>
+        <v>35.07734920122535</v>
       </c>
       <c r="Q10" t="n">
-        <v>248.8790873563503</v>
+        <v>54.57936239911656</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
         <is>
-          <t>model_12_3_14</t>
+          <t>model_12_3_15</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.9999974177537621</v>
+        <v>0.6383931775788736</v>
       </c>
       <c r="C11" t="n">
-        <v>0.683151781529648</v>
+        <v>-23.10748969621655</v>
       </c>
       <c r="D11" t="n">
-        <v>0.9999918040631369</v>
+        <v>0.3313169117313355</v>
       </c>
       <c r="E11" t="n">
-        <v>0.9999965551099957</v>
+        <v>-1.388364236985702</v>
       </c>
       <c r="F11" t="n">
-        <v>0.9999935549357973</v>
+        <v>-0.2814759963235094</v>
       </c>
       <c r="G11" t="n">
-        <v>1.532932914095583e-06</v>
+        <v>0.2146654303905574</v>
       </c>
       <c r="H11" t="n">
-        <v>0.1880947896143613</v>
+        <v>14.31124727300474</v>
       </c>
       <c r="I11" t="n">
-        <v>7.703085562609351e-06</v>
+        <v>0.2473980154060813</v>
       </c>
       <c r="J11" t="n">
-        <v>1.877744102092748e-06</v>
+        <v>0.4910661420305162</v>
       </c>
       <c r="K11" t="n">
-        <v>4.790280903036851e-06</v>
+        <v>0.3692320787182988</v>
       </c>
       <c r="L11" t="n">
-        <v>0.0003636005420502443</v>
+        <v>0.2718993657310753</v>
       </c>
       <c r="M11" t="n">
-        <v>0.001238116680323621</v>
+        <v>0.4633200086231518</v>
       </c>
       <c r="N11" t="n">
-        <v>1.000001377197994</v>
+        <v>-0.08482046726337922</v>
       </c>
       <c r="O11" t="n">
-        <v>0.001290825870659852</v>
+        <v>0.4830445005948765</v>
       </c>
       <c r="P11" t="n">
-        <v>164.7766554404445</v>
+        <v>35.07734920122535</v>
       </c>
       <c r="Q11" t="n">
-        <v>248.8790873563503</v>
+        <v>54.57936239911656</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>model_12_3_13</t>
+          <t>model_12_3_14</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0.9999974177537621</v>
+        <v>0.6383931775788736</v>
       </c>
       <c r="C12" t="n">
-        <v>0.683151781529648</v>
+        <v>-23.10748969621655</v>
       </c>
       <c r="D12" t="n">
-        <v>0.9999918040631369</v>
+        <v>0.3313169117313355</v>
       </c>
       <c r="E12" t="n">
-        <v>0.9999965551099957</v>
+        <v>-1.388364236985702</v>
       </c>
       <c r="F12" t="n">
-        <v>0.9999935549357973</v>
+        <v>-0.2814759963235094</v>
       </c>
       <c r="G12" t="n">
-        <v>1.532932914095583e-06</v>
+        <v>0.2146654303905574</v>
       </c>
       <c r="H12" t="n">
-        <v>0.1880947896143613</v>
+        <v>14.31124727300474</v>
       </c>
       <c r="I12" t="n">
-        <v>7.703085562609351e-06</v>
+        <v>0.2473980154060813</v>
       </c>
       <c r="J12" t="n">
-        <v>1.877744102092748e-06</v>
+        <v>0.4910661420305162</v>
       </c>
       <c r="K12" t="n">
-        <v>4.790280903036851e-06</v>
+        <v>0.3692320787182988</v>
       </c>
       <c r="L12" t="n">
-        <v>0.0003636005420502443</v>
+        <v>0.2718993657310753</v>
       </c>
       <c r="M12" t="n">
-        <v>0.001238116680323621</v>
+        <v>0.4633200086231518</v>
       </c>
       <c r="N12" t="n">
-        <v>1.000001377197994</v>
+        <v>-0.08482046726337922</v>
       </c>
       <c r="O12" t="n">
-        <v>0.001290825870659852</v>
+        <v>0.4830445005948765</v>
       </c>
       <c r="P12" t="n">
-        <v>164.7766554404445</v>
+        <v>35.07734920122535</v>
       </c>
       <c r="Q12" t="n">
-        <v>248.8790873563503</v>
+        <v>54.57936239911656</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
         <is>
-          <t>model_12_3_23</t>
+          <t>model_12_3_13</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0.9999974177537621</v>
+        <v>0.6383931775788736</v>
       </c>
       <c r="C13" t="n">
-        <v>0.683151781529648</v>
+        <v>-23.10748969621655</v>
       </c>
       <c r="D13" t="n">
-        <v>0.9999918040631369</v>
+        <v>0.3313169117313355</v>
       </c>
       <c r="E13" t="n">
-        <v>0.9999965551099957</v>
+        <v>-1.388364236985702</v>
       </c>
       <c r="F13" t="n">
-        <v>0.9999935549357973</v>
+        <v>-0.2814759963235094</v>
       </c>
       <c r="G13" t="n">
-        <v>1.532932914095583e-06</v>
+        <v>0.2146654303905574</v>
       </c>
       <c r="H13" t="n">
-        <v>0.1880947896143613</v>
+        <v>14.31124727300474</v>
       </c>
       <c r="I13" t="n">
-        <v>7.703085562609351e-06</v>
+        <v>0.2473980154060813</v>
       </c>
       <c r="J13" t="n">
-        <v>1.877744102092748e-06</v>
+        <v>0.4910661420305162</v>
       </c>
       <c r="K13" t="n">
-        <v>4.790280903036851e-06</v>
+        <v>0.3692320787182988</v>
       </c>
       <c r="L13" t="n">
-        <v>0.0003636005420502443</v>
+        <v>0.2718993657310753</v>
       </c>
       <c r="M13" t="n">
-        <v>0.001238116680323621</v>
+        <v>0.4633200086231518</v>
       </c>
       <c r="N13" t="n">
-        <v>1.000001377197994</v>
+        <v>-0.08482046726337922</v>
       </c>
       <c r="O13" t="n">
-        <v>0.001290825870659852</v>
+        <v>0.4830445005948765</v>
       </c>
       <c r="P13" t="n">
-        <v>164.7766554404445</v>
+        <v>35.07734920122535</v>
       </c>
       <c r="Q13" t="n">
-        <v>248.8790873563503</v>
+        <v>54.57936239911656</v>
       </c>
     </row>
     <row r="14">
@@ -1182,327 +1182,327 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0.9999974177537621</v>
+        <v>0.6383931775788736</v>
       </c>
       <c r="C14" t="n">
-        <v>0.683151781529648</v>
+        <v>-23.10748969621655</v>
       </c>
       <c r="D14" t="n">
-        <v>0.9999918040631369</v>
+        <v>0.3313169117313355</v>
       </c>
       <c r="E14" t="n">
-        <v>0.9999965551099957</v>
+        <v>-1.388364236985702</v>
       </c>
       <c r="F14" t="n">
-        <v>0.9999935549357973</v>
+        <v>-0.2814759963235094</v>
       </c>
       <c r="G14" t="n">
-        <v>1.532932914095583e-06</v>
+        <v>0.2146654303905574</v>
       </c>
       <c r="H14" t="n">
-        <v>0.1880947896143613</v>
+        <v>14.31124727300474</v>
       </c>
       <c r="I14" t="n">
-        <v>7.703085562609351e-06</v>
+        <v>0.2473980154060813</v>
       </c>
       <c r="J14" t="n">
-        <v>1.877744102092748e-06</v>
+        <v>0.4910661420305162</v>
       </c>
       <c r="K14" t="n">
-        <v>4.790280903036851e-06</v>
+        <v>0.3692320787182988</v>
       </c>
       <c r="L14" t="n">
-        <v>0.0003636005420502443</v>
+        <v>0.2718993657310753</v>
       </c>
       <c r="M14" t="n">
-        <v>0.001238116680323621</v>
+        <v>0.4633200086231518</v>
       </c>
       <c r="N14" t="n">
-        <v>1.000001377197994</v>
+        <v>-0.08482046726337922</v>
       </c>
       <c r="O14" t="n">
-        <v>0.001290825870659852</v>
+        <v>0.4830445005948765</v>
       </c>
       <c r="P14" t="n">
-        <v>164.7766554404445</v>
+        <v>35.07734920122535</v>
       </c>
       <c r="Q14" t="n">
-        <v>248.8790873563503</v>
+        <v>54.57936239911656</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="inlineStr">
         <is>
-          <t>model_12_3_10</t>
+          <t>model_12_3_23</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>0.9999974177537621</v>
+        <v>0.6383931775788736</v>
       </c>
       <c r="C15" t="n">
-        <v>0.683151781529648</v>
+        <v>-23.10748969621655</v>
       </c>
       <c r="D15" t="n">
-        <v>0.9999918040631369</v>
+        <v>0.3313169117313355</v>
       </c>
       <c r="E15" t="n">
-        <v>0.9999965551099957</v>
+        <v>-1.388364236985702</v>
       </c>
       <c r="F15" t="n">
-        <v>0.9999935549357973</v>
+        <v>-0.2814759963235094</v>
       </c>
       <c r="G15" t="n">
-        <v>1.532932914095583e-06</v>
+        <v>0.2146654303905574</v>
       </c>
       <c r="H15" t="n">
-        <v>0.1880947896143613</v>
+        <v>14.31124727300474</v>
       </c>
       <c r="I15" t="n">
-        <v>7.703085562609351e-06</v>
+        <v>0.2473980154060813</v>
       </c>
       <c r="J15" t="n">
-        <v>1.877744102092748e-06</v>
+        <v>0.4910661420305162</v>
       </c>
       <c r="K15" t="n">
-        <v>4.790280903036851e-06</v>
+        <v>0.3692320787182988</v>
       </c>
       <c r="L15" t="n">
-        <v>0.0003636005420502443</v>
+        <v>0.2718993657310753</v>
       </c>
       <c r="M15" t="n">
-        <v>0.001238116680323621</v>
+        <v>0.4633200086231518</v>
       </c>
       <c r="N15" t="n">
-        <v>1.000001377197994</v>
+        <v>-0.08482046726337922</v>
       </c>
       <c r="O15" t="n">
-        <v>0.001290825870659852</v>
+        <v>0.4830445005948765</v>
       </c>
       <c r="P15" t="n">
-        <v>164.7766554404445</v>
+        <v>35.07734920122535</v>
       </c>
       <c r="Q15" t="n">
-        <v>248.8790873563503</v>
+        <v>54.57936239911656</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>model_12_3_9</t>
+          <t>model_12_3_10</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0.9999974177537621</v>
+        <v>0.6419327987711958</v>
       </c>
       <c r="C16" t="n">
-        <v>0.683151781529648</v>
+        <v>-23.19731153925137</v>
       </c>
       <c r="D16" t="n">
-        <v>0.9999918040631369</v>
+        <v>0.3389986513804766</v>
       </c>
       <c r="E16" t="n">
-        <v>0.9999965551099957</v>
+        <v>-1.334093485931358</v>
       </c>
       <c r="F16" t="n">
-        <v>0.9999935549357973</v>
+        <v>-0.2571804611668036</v>
       </c>
       <c r="G16" t="n">
-        <v>1.532932914095583e-06</v>
+        <v>0.2125641583471211</v>
       </c>
       <c r="H16" t="n">
-        <v>0.1880947896143613</v>
+        <v>14.3645693991318</v>
       </c>
       <c r="I16" t="n">
-        <v>7.703085562609351e-06</v>
+        <v>0.2445559409205664</v>
       </c>
       <c r="J16" t="n">
-        <v>1.877744102092748e-06</v>
+        <v>0.4799076562632908</v>
       </c>
       <c r="K16" t="n">
-        <v>4.790280903036851e-06</v>
+        <v>0.3622317985919286</v>
       </c>
       <c r="L16" t="n">
-        <v>0.0003636005420502443</v>
+        <v>0.2710286096946006</v>
       </c>
       <c r="M16" t="n">
-        <v>0.001238116680323621</v>
+        <v>0.4610468071108627</v>
       </c>
       <c r="N16" t="n">
-        <v>1.000001377197994</v>
+        <v>-0.0742016036864126</v>
       </c>
       <c r="O16" t="n">
-        <v>0.001290825870659852</v>
+        <v>0.4806745241880335</v>
       </c>
       <c r="P16" t="n">
-        <v>164.7766554404445</v>
+        <v>35.09702282910663</v>
       </c>
       <c r="Q16" t="n">
-        <v>248.8790873563503</v>
+        <v>54.59903602699784</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="inlineStr">
         <is>
-          <t>model_12_3_8</t>
+          <t>model_12_3_11</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0.9999974177537621</v>
+        <v>0.6394424168438981</v>
       </c>
       <c r="C17" t="n">
-        <v>0.683151781529648</v>
+        <v>-23.20432568632141</v>
       </c>
       <c r="D17" t="n">
-        <v>0.9999918040631369</v>
+        <v>0.3331906864870069</v>
       </c>
       <c r="E17" t="n">
-        <v>0.9999965551099957</v>
+        <v>-1.37186992618305</v>
       </c>
       <c r="F17" t="n">
-        <v>0.9999935549357973</v>
+        <v>-0.2743878612457455</v>
       </c>
       <c r="G17" t="n">
-        <v>1.532932914095583e-06</v>
+        <v>0.2140425566380626</v>
       </c>
       <c r="H17" t="n">
-        <v>0.1880947896143613</v>
+        <v>14.36873329982794</v>
       </c>
       <c r="I17" t="n">
-        <v>7.703085562609351e-06</v>
+        <v>0.2467047600149941</v>
       </c>
       <c r="J17" t="n">
-        <v>1.877744102092748e-06</v>
+        <v>0.4876747842778423</v>
       </c>
       <c r="K17" t="n">
-        <v>4.790280903036851e-06</v>
+        <v>0.3671897721464182</v>
       </c>
       <c r="L17" t="n">
-        <v>0.0003636005420502443</v>
+        <v>0.2717672078397137</v>
       </c>
       <c r="M17" t="n">
-        <v>0.001238116680323621</v>
+        <v>0.462647335059938</v>
       </c>
       <c r="N17" t="n">
-        <v>1.000001377197994</v>
+        <v>-0.08167274946830561</v>
       </c>
       <c r="O17" t="n">
-        <v>0.001290825870659852</v>
+        <v>0.4823431899254507</v>
       </c>
       <c r="P17" t="n">
-        <v>164.7766554404445</v>
+        <v>35.08316084187237</v>
       </c>
       <c r="Q17" t="n">
-        <v>248.8790873563503</v>
+        <v>54.58517403976358</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="inlineStr">
         <is>
-          <t>model_12_3_11</t>
+          <t>model_12_3_8</t>
         </is>
       </c>
       <c r="B18" t="n">
-        <v>0.9999974177537621</v>
+        <v>0.6466613230193305</v>
       </c>
       <c r="C18" t="n">
-        <v>0.683151781529648</v>
+        <v>-23.21738108578707</v>
       </c>
       <c r="D18" t="n">
-        <v>0.9999918040631369</v>
+        <v>0.3535338336325647</v>
       </c>
       <c r="E18" t="n">
-        <v>0.9999965551099957</v>
+        <v>-1.266464750513067</v>
       </c>
       <c r="F18" t="n">
-        <v>0.9999935549357973</v>
+        <v>-0.2237187130112821</v>
       </c>
       <c r="G18" t="n">
-        <v>1.532932914095583e-06</v>
+        <v>0.2097571020918164</v>
       </c>
       <c r="H18" t="n">
-        <v>0.1880947896143613</v>
+        <v>14.37648354891465</v>
       </c>
       <c r="I18" t="n">
-        <v>7.703085562609351e-06</v>
+        <v>0.2391782436139949</v>
       </c>
       <c r="J18" t="n">
-        <v>1.877744102092748e-06</v>
+        <v>0.4660026656936043</v>
       </c>
       <c r="K18" t="n">
-        <v>4.790280903036851e-06</v>
+        <v>0.3525904546537996</v>
       </c>
       <c r="L18" t="n">
-        <v>0.0003636005420502443</v>
+        <v>0.2698003754854419</v>
       </c>
       <c r="M18" t="n">
-        <v>0.001238116680323621</v>
+        <v>0.4579924694706414</v>
       </c>
       <c r="N18" t="n">
-        <v>1.000001377197994</v>
+        <v>-0.06001603094200836</v>
       </c>
       <c r="O18" t="n">
-        <v>0.001290825870659852</v>
+        <v>0.4774901570711175</v>
       </c>
       <c r="P18" t="n">
-        <v>164.7766554404445</v>
+        <v>35.12361014882786</v>
       </c>
       <c r="Q18" t="n">
-        <v>248.8790873563503</v>
+        <v>54.62562334671907</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="inlineStr">
         <is>
-          <t>model_12_3_5</t>
+          <t>model_12_3_7</t>
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0.9999974181620377</v>
+        <v>0.6497370186875215</v>
       </c>
       <c r="C19" t="n">
-        <v>0.6831516934755131</v>
+        <v>-23.70073748158287</v>
       </c>
       <c r="D19" t="n">
-        <v>0.9999918057925997</v>
+        <v>0.3627719291311196</v>
       </c>
       <c r="E19" t="n">
-        <v>0.9999965549072157</v>
+        <v>-1.223673472362222</v>
       </c>
       <c r="F19" t="n">
-        <v>0.9999935549911869</v>
+        <v>-0.2025197818381586</v>
       </c>
       <c r="G19" t="n">
-        <v>1.532690543996133e-06</v>
+        <v>0.2079312362800435</v>
       </c>
       <c r="H19" t="n">
-        <v>0.1880948418870995</v>
+        <v>14.66342478536814</v>
       </c>
       <c r="I19" t="n">
-        <v>7.701460098601772e-06</v>
+        <v>0.2357603517417901</v>
       </c>
       <c r="J19" t="n">
-        <v>1.877854633599598e-06</v>
+        <v>0.4572044482573012</v>
       </c>
       <c r="K19" t="n">
-        <v>4.790239734890675e-06</v>
+        <v>0.3464823999995457</v>
       </c>
       <c r="L19" t="n">
-        <v>0.0003636446892710225</v>
+        <v>0.2692863323372691</v>
       </c>
       <c r="M19" t="n">
-        <v>0.001238018797917113</v>
+        <v>0.455994776592938</v>
       </c>
       <c r="N19" t="n">
-        <v>1.000001376980246</v>
+        <v>-0.05078894393743538</v>
       </c>
       <c r="O19" t="n">
-        <v>0.001290723821196654</v>
+        <v>0.4754074182718159</v>
       </c>
       <c r="P19" t="n">
-        <v>164.7769716829358</v>
+        <v>35.14109569749363</v>
       </c>
       <c r="Q19" t="n">
-        <v>248.8794035988416</v>
+        <v>54.64310889538483</v>
       </c>
     </row>
     <row r="20">
@@ -1512,107 +1512,107 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0.9999974177759621</v>
+        <v>0.6581278343715251</v>
       </c>
       <c r="C20" t="n">
-        <v>0.6831516930875399</v>
+        <v>-24.5081548383484</v>
       </c>
       <c r="D20" t="n">
-        <v>0.9999918042683748</v>
+        <v>0.3885012404406331</v>
       </c>
       <c r="E20" t="n">
-        <v>0.9999965549072157</v>
+        <v>-1.098186483378788</v>
       </c>
       <c r="F20" t="n">
-        <v>0.9999935544192098</v>
+        <v>-0.1412274227722186</v>
       </c>
       <c r="G20" t="n">
-        <v>1.532919735214261e-06</v>
+        <v>0.2029500856256546</v>
       </c>
       <c r="H20" t="n">
-        <v>0.1880948421174172</v>
+        <v>15.14274260695787</v>
       </c>
       <c r="I20" t="n">
-        <v>7.702892666388438e-06</v>
+        <v>0.2262410732264324</v>
       </c>
       <c r="J20" t="n">
-        <v>1.877854633599598e-06</v>
+        <v>0.4314033536835134</v>
       </c>
       <c r="K20" t="n">
-        <v>4.790664855705295e-06</v>
+        <v>0.3288222134549729</v>
       </c>
       <c r="L20" t="n">
-        <v>0.000363640674216864</v>
+        <v>0.2673334797708395</v>
       </c>
       <c r="M20" t="n">
-        <v>0.001238111358163821</v>
+        <v>0.4504998175645076</v>
       </c>
       <c r="N20" t="n">
-        <v>1.000001377186154</v>
+        <v>-0.02561649688542467</v>
       </c>
       <c r="O20" t="n">
-        <v>0.00129082032192469</v>
+        <v>0.4696785274614119</v>
       </c>
       <c r="P20" t="n">
-        <v>164.7766726348538</v>
+        <v>35.18959042758429</v>
       </c>
       <c r="Q20" t="n">
-        <v>248.8791045507596</v>
+        <v>54.6916036254755</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="inlineStr">
         <is>
-          <t>model_12_3_7</t>
+          <t>model_12_3_5</t>
         </is>
       </c>
       <c r="B21" t="n">
-        <v>0.9999974177759621</v>
+        <v>0.6736368436614425</v>
       </c>
       <c r="C21" t="n">
-        <v>0.6831516930525441</v>
+        <v>-25.83206991164971</v>
       </c>
       <c r="D21" t="n">
-        <v>0.9999918042683748</v>
+        <v>0.4400746242175776</v>
       </c>
       <c r="E21" t="n">
-        <v>0.9999965549072157</v>
+        <v>-0.8048830080860336</v>
       </c>
       <c r="F21" t="n">
-        <v>0.9999935544192098</v>
+        <v>-0.00346601120452017</v>
       </c>
       <c r="G21" t="n">
-        <v>1.532919735214261e-06</v>
+        <v>0.1937432677568423</v>
       </c>
       <c r="H21" t="n">
-        <v>0.1880948421381922</v>
+        <v>15.92867578462285</v>
       </c>
       <c r="I21" t="n">
-        <v>7.702892666388438e-06</v>
+        <v>0.2071600570948178</v>
       </c>
       <c r="J21" t="n">
-        <v>1.877854633599598e-06</v>
+        <v>0.3710978928054295</v>
       </c>
       <c r="K21" t="n">
-        <v>4.790664855705295e-06</v>
+        <v>0.2891289749501237</v>
       </c>
       <c r="L21" t="n">
-        <v>0.000363640674216864</v>
+        <v>0.2657632140910283</v>
       </c>
       <c r="M21" t="n">
-        <v>0.001238111358163821</v>
+        <v>0.4401627741606988</v>
       </c>
       <c r="N21" t="n">
-        <v>1.000001377186154</v>
+        <v>0.02091053098432749</v>
       </c>
       <c r="O21" t="n">
-        <v>0.00129082032192469</v>
+        <v>0.4589014147192732</v>
       </c>
       <c r="P21" t="n">
-        <v>164.7766726348538</v>
+        <v>35.28244271682767</v>
       </c>
       <c r="Q21" t="n">
-        <v>248.8791045507596</v>
+        <v>54.78445591471888</v>
       </c>
     </row>
     <row r="22">
@@ -1622,52 +1622,52 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0.9999974179209478</v>
+        <v>0.6748681855409469</v>
       </c>
       <c r="C22" t="n">
-        <v>0.6831516425366166</v>
+        <v>-27.22608237780868</v>
       </c>
       <c r="D22" t="n">
-        <v>0.9999918047182739</v>
+        <v>0.4444539085274858</v>
       </c>
       <c r="E22" t="n">
-        <v>0.9999965551187212</v>
+        <v>-0.7835597643828569</v>
       </c>
       <c r="F22" t="n">
-        <v>0.9999935553532202</v>
+        <v>0.006953688082644405</v>
       </c>
       <c r="G22" t="n">
-        <v>1.532833665384269e-06</v>
+        <v>0.193012290025969</v>
       </c>
       <c r="H22" t="n">
-        <v>0.1880948721266289</v>
+        <v>16.75622180273784</v>
       </c>
       <c r="I22" t="n">
-        <v>7.702469821396731e-06</v>
+        <v>0.2055398183506685</v>
       </c>
       <c r="J22" t="n">
-        <v>1.877739345952739e-06</v>
+        <v>0.3667136691352113</v>
       </c>
       <c r="K22" t="n">
-        <v>4.789970654360537e-06</v>
+        <v>0.2861267437429399</v>
       </c>
       <c r="L22" t="n">
-        <v>0.0003636537881729552</v>
+        <v>0.2655559814887576</v>
       </c>
       <c r="M22" t="n">
-        <v>0.001238076599158658</v>
+        <v>0.4393316401375719</v>
       </c>
       <c r="N22" t="n">
-        <v>1.000001377108828</v>
+        <v>0.02460455662284056</v>
       </c>
       <c r="O22" t="n">
-        <v>0.001290784083156717</v>
+        <v>0.4580348976000971</v>
       </c>
       <c r="P22" t="n">
-        <v>164.7767849332924</v>
+        <v>35.29000282642727</v>
       </c>
       <c r="Q22" t="n">
-        <v>248.8792168491982</v>
+        <v>54.79201602431848</v>
       </c>
     </row>
     <row r="23">
@@ -1677,217 +1677,217 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>0.9999974179209478</v>
+        <v>0.6765810469609213</v>
       </c>
       <c r="C23" t="n">
-        <v>0.6831516425366166</v>
+        <v>-28.76707086765381</v>
       </c>
       <c r="D23" t="n">
-        <v>0.9999918047182739</v>
+        <v>0.4509606861318993</v>
       </c>
       <c r="E23" t="n">
-        <v>0.9999965551187212</v>
+        <v>-0.7436113646171385</v>
       </c>
       <c r="F23" t="n">
-        <v>0.9999935553532202</v>
+        <v>0.02538469592086878</v>
       </c>
       <c r="G23" t="n">
-        <v>1.532833665384269e-06</v>
+        <v>0.1919954614953115</v>
       </c>
       <c r="H23" t="n">
-        <v>0.1880948721266289</v>
+        <v>17.67101913754657</v>
       </c>
       <c r="I23" t="n">
-        <v>7.702469821396731e-06</v>
+        <v>0.2031324539440277</v>
       </c>
       <c r="J23" t="n">
-        <v>1.877739345952739e-06</v>
+        <v>0.3584999694618304</v>
       </c>
       <c r="K23" t="n">
-        <v>4.789970654360537e-06</v>
+        <v>0.280816211702929</v>
       </c>
       <c r="L23" t="n">
-        <v>0.0003636537881729552</v>
+        <v>0.265369488407859</v>
       </c>
       <c r="M23" t="n">
-        <v>0.001238076599158658</v>
+        <v>0.438172867137288</v>
       </c>
       <c r="N23" t="n">
-        <v>1.000001377108828</v>
+        <v>0.02974314088276375</v>
       </c>
       <c r="O23" t="n">
-        <v>0.001290784083156717</v>
+        <v>0.4568267932342004</v>
       </c>
       <c r="P23" t="n">
-        <v>164.7767849332924</v>
+        <v>35.30056709055798</v>
       </c>
       <c r="Q23" t="n">
-        <v>248.8792168491982</v>
+        <v>54.80258028844919</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="inlineStr">
         <is>
-          <t>model_12_3_0</t>
+          <t>model_12_3_2</t>
         </is>
       </c>
       <c r="B24" t="n">
-        <v>0.9999974184672495</v>
+        <v>0.6785021157788209</v>
       </c>
       <c r="C24" t="n">
-        <v>0.683151637990663</v>
+        <v>-30.32404180327222</v>
       </c>
       <c r="D24" t="n">
-        <v>0.9999918073100729</v>
+        <v>0.4586743093999733</v>
       </c>
       <c r="E24" t="n">
-        <v>0.9999965543700363</v>
+        <v>-0.6920248337996866</v>
       </c>
       <c r="F24" t="n">
-        <v>0.9999935565372075</v>
+        <v>0.04874298122517462</v>
       </c>
       <c r="G24" t="n">
-        <v>1.53250935707776e-06</v>
+        <v>0.1908550320591543</v>
       </c>
       <c r="H24" t="n">
-        <v>0.1880948748253033</v>
+        <v>18.59530434257203</v>
       </c>
       <c r="I24" t="n">
-        <v>7.700033876620155e-06</v>
+        <v>0.2002785832217208</v>
       </c>
       <c r="J24" t="n">
-        <v>1.878147439865775e-06</v>
+        <v>0.3478933801162974</v>
       </c>
       <c r="K24" t="n">
-        <v>4.789090658242965e-06</v>
+        <v>0.2740859816690091</v>
       </c>
       <c r="L24" t="n">
-        <v>0.000363614664316913</v>
+        <v>0.2651738177774576</v>
       </c>
       <c r="M24" t="n">
-        <v>0.001237945619596337</v>
+        <v>0.4368695824375443</v>
       </c>
       <c r="N24" t="n">
-        <v>1.000001376817467</v>
+        <v>0.03550634733646274</v>
       </c>
       <c r="O24" t="n">
-        <v>0.001290647527523263</v>
+        <v>0.4554680250066173</v>
       </c>
       <c r="P24" t="n">
-        <v>164.7772081267887</v>
+        <v>35.31248226714463</v>
       </c>
       <c r="Q24" t="n">
-        <v>248.8796400426945</v>
+        <v>54.81449546503584</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="inlineStr">
         <is>
-          <t>model_12_3_2</t>
+          <t>model_12_3_1</t>
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0.9999974181339367</v>
+        <v>0.6804142929032229</v>
       </c>
       <c r="C25" t="n">
-        <v>0.6831516040057979</v>
+        <v>-31.84404152097266</v>
       </c>
       <c r="D25" t="n">
-        <v>0.9999918058280922</v>
+        <v>0.4669713966866665</v>
       </c>
       <c r="E25" t="n">
-        <v>0.9999965546552708</v>
+        <v>-0.6318623104702326</v>
       </c>
       <c r="F25" t="n">
-        <v>0.9999935560965324</v>
+        <v>0.07553575273398694</v>
       </c>
       <c r="G25" t="n">
-        <v>1.532707225946853e-06</v>
+        <v>0.1897198811163586</v>
       </c>
       <c r="H25" t="n">
-        <v>0.1880948950001873</v>
+        <v>19.49764183556792</v>
       </c>
       <c r="I25" t="n">
-        <v>7.701426740389997e-06</v>
+        <v>0.1972088436628908</v>
       </c>
       <c r="J25" t="n">
-        <v>1.877991963985692e-06</v>
+        <v>0.335523500443546</v>
       </c>
       <c r="K25" t="n">
-        <v>4.789418189109131e-06</v>
+        <v>0.2663661720532184</v>
       </c>
       <c r="L25" t="n">
-        <v>0.0003636986116116168</v>
+        <v>0.2649572911351829</v>
       </c>
       <c r="M25" t="n">
-        <v>0.001238025535256383</v>
+        <v>0.4355684574396527</v>
       </c>
       <c r="N25" t="n">
-        <v>1.000001376995234</v>
+        <v>0.04124287870966858</v>
       </c>
       <c r="O25" t="n">
-        <v>0.001290730845358405</v>
+        <v>0.4541115084238654</v>
       </c>
       <c r="P25" t="n">
-        <v>164.7769499148627</v>
+        <v>35.32441320919956</v>
       </c>
       <c r="Q25" t="n">
-        <v>248.8793818307685</v>
+        <v>54.82642640709076</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="inlineStr">
         <is>
-          <t>model_12_3_1</t>
+          <t>model_12_3_0</t>
         </is>
       </c>
       <c r="B26" t="n">
-        <v>0.999997417898129</v>
+        <v>0.6625621858825883</v>
       </c>
       <c r="C26" t="n">
-        <v>0.6831515718127641</v>
+        <v>-44.13982607852679</v>
       </c>
       <c r="D26" t="n">
-        <v>0.9999918054403064</v>
+        <v>0.4781908929206365</v>
       </c>
       <c r="E26" t="n">
-        <v>0.9999965537202692</v>
+        <v>0.08105672875285574</v>
       </c>
       <c r="F26" t="n">
-        <v>0.9999935552968858</v>
+        <v>0.3371059926404703</v>
       </c>
       <c r="G26" t="n">
-        <v>1.532847211601533e-06</v>
+        <v>0.2003176630146764</v>
       </c>
       <c r="H26" t="n">
-        <v>0.1880949141113629</v>
+        <v>26.79695069916838</v>
       </c>
       <c r="I26" t="n">
-        <v>7.701791207312634e-06</v>
+        <v>0.1930578771574766</v>
       </c>
       <c r="J26" t="n">
-        <v>1.878501615635455e-06</v>
+        <v>0.1889418372491477</v>
       </c>
       <c r="K26" t="n">
-        <v>4.79001252479241e-06</v>
+        <v>0.1909998572033121</v>
       </c>
       <c r="L26" t="n">
-        <v>0.0003636841285032002</v>
+        <v>0.2877405289119224</v>
       </c>
       <c r="M26" t="n">
-        <v>0.001238082069816671</v>
+        <v>0.4475686126335004</v>
       </c>
       <c r="N26" t="n">
-        <v>1.000001377120998</v>
+        <v>-0.01231344235223508</v>
       </c>
       <c r="O26" t="n">
-        <v>0.001290789786711968</v>
+        <v>0.4666225350680611</v>
       </c>
       <c r="P26" t="n">
-        <v>164.7767672586318</v>
+        <v>35.21570171479812</v>
       </c>
       <c r="Q26" t="n">
-        <v>248.8791991745376</v>
+        <v>54.71771491268932</v>
       </c>
     </row>
   </sheetData>
